--- a/data/MSME Country Indicators - Albania Summary.xlsx
+++ b/data/MSME Country Indicators - Albania Summary.xlsx
@@ -5,13 +5,13 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId2"/>
+    <sheet name="Summary" sheetId="1" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>Albania</t>
   </si>
@@ -19,6 +19,9 @@
     <t>MSME Participation on the Economy</t>
   </si>
   <si>
+    <t>Source Type: Statistical Institution</t>
+  </si>
+  <si>
     <t>Micro</t>
   </si>
   <si>
@@ -31,6 +34,72 @@
     <t>Enterprises (absolute #)</t>
   </si>
   <si>
+    <t>71371</t>
+  </si>
+  <si>
+    <t>6736</t>
+  </si>
+  <si>
+    <t>78107</t>
+  </si>
+  <si>
+    <t>Enterprises density (per 1000 people)</t>
+  </si>
+  <si>
+    <t>22.6</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>24.8</t>
+  </si>
+  <si>
+    <t>Employment (% of total)</t>
+  </si>
+  <si>
+    <t>36.8</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Employment (absolute #)</t>
+  </si>
+  <si>
+    <t>103512</t>
+  </si>
+  <si>
+    <t>95978</t>
+  </si>
+  <si>
+    <t>199490</t>
+  </si>
+  <si>
+    <t>Enterprises (% of total)</t>
+  </si>
+  <si>
+    <t>Source: INSTAT, 2011</t>
+  </si>
+  <si>
+    <t>Value added to the economy (% of total)</t>
+  </si>
+  <si>
+    <t>19.1</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>59.3</t>
+  </si>
+  <si>
+    <t>Source Type: SME Associations (Most Widely Used)</t>
+  </si>
+  <si>
     <t>74932</t>
   </si>
   <si>
@@ -40,28 +109,19 @@
     <t>78339</t>
   </si>
   <si>
-    <t>Enterprises density (per 1000 people)</t>
-  </si>
-  <si>
     <t>23.8</t>
   </si>
   <si>
     <t>1.1</t>
   </si>
   <si>
-    <t>24.8</t>
-  </si>
-  <si>
-    <t>Employment (% of total)</t>
-  </si>
-  <si>
     <t>44.9</t>
   </si>
   <si>
     <t>36.5</t>
   </si>
   <si>
-    <t>Employment (absolute #)</t>
+    <t>81.4</t>
   </si>
   <si>
     <t>126079</t>
@@ -73,9 +133,6 @@
     <t>228478</t>
   </si>
   <si>
-    <t>Enterprises (% of total)</t>
-  </si>
-  <si>
     <t>95.5</t>
   </si>
   <si>
@@ -88,15 +145,15 @@
     <t>Source: SME Performance Review EU, 2011</t>
   </si>
   <si>
-    <t>Value added to the economy (% of total)</t>
-  </si>
-  <si>
     <t>27.2</t>
   </si>
   <si>
     <t>41.2</t>
   </si>
   <si>
+    <t>68.4</t>
+  </si>
+  <si>
     <t>Sector Distribution Details</t>
   </si>
   <si>
@@ -233,6 +290,18 @@
   </si>
   <si>
     <t>English, Figures, Statistical Databases, Enterprises Economic Indicators, "basic data for all maket producers of goods and services, by size group of enterprises 2006 - 2012"</t>
+  </si>
+  <si>
+    <t>INSTAT</t>
+  </si>
+  <si>
+    <t>Albania, Institute of Statistics (INSTAT), "Enterprises Economic Indicators", 2014. Available at http://www.instat.gov.al/en/figures/statistical-databases.aspx</t>
+  </si>
+  <si>
+    <t>SME Performance Review EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SME Performance Review EU, "SBA Fact sheet", 2013.  Available at http://ec.europa.eu/enterprise/policies/sme/facts-figures-analysis/performance-review/index_en.htm</t>
   </si>
 </sst>
 </file>
@@ -240,7 +309,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -251,6 +320,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -283,26 +358,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" fontId="1"/>
     <xf numFmtId="0" fontId="2"/>
     <xf numFmtId="0" fontId="3"/>
     <xf numFmtId="0" fontId="4"/>
+    <xf numFmtId="0" fontId="5"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="2" applyFont="1" xfId="2"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="3" applyFont="1" xfId="3"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" xfId="4"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="5" applyFont="1" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="name" xfId="1"/>
     <cellStyle name="title" xfId="2"/>
-    <cellStyle name="source" xfId="3"/>
-    <cellStyle name="HyperLink" xfId="4"/>
+    <cellStyle name="title_" xfId="3"/>
+    <cellStyle name="source" xfId="4"/>
+    <cellStyle name="HyperLink" xfId="5"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -310,7 +388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -326,294 +404,437 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
-      <c r="B5" s="2" t="s">
+    <row r="7">
+      <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="9">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="D13" s="0" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>24</v>
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="2" t="s">
+    <row r="25">
+      <c r="B25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="C25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="C26" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="D26" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C27" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>63</v>
-      </c>
       <c r="D27" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>70</v>
+      <c r="A29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="s">
-        <v>71</v>
+      <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="D45" s="0" t="s">
         <v>73</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A31" r:id="rId1"/>
+    <hyperlink ref="A51" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - Albania Summary.xlsx
+++ b/data/MSME Country Indicators - Albania Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>Albania</t>
   </si>
@@ -97,6 +97,51 @@
     <t>59.3</t>
   </si>
   <si>
+    <t>Number of employees</t>
+  </si>
+  <si>
+    <t>Assets (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>Turnover (local currency, unless noted otherwise)</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>&lt;= 10Millionlion</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>5-19</t>
+  </si>
+  <si>
+    <t>&lt;= 50Millionlion</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>20-79</t>
+  </si>
+  <si>
+    <t>&lt;= 250Millionlion</t>
+  </si>
+  <si>
+    <t>Large</t>
+  </si>
+  <si>
+    <t>&gt;=80</t>
+  </si>
+  <si>
+    <t>&gt;= 250Millionlion</t>
+  </si>
+  <si>
     <t>Source Type: SME Associations (Most Widely Used)</t>
   </si>
   <si>
@@ -152,6 +197,42 @@
   </si>
   <si>
     <t>68.4</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>≤ €2 Millionlion (previously not defined)</t>
+  </si>
+  <si>
+    <t>≤ € 2 Millionlion</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>≤ €10 Millionlion (in 1996 €5 Millionlion)</t>
+  </si>
+  <si>
+    <t>≤ € 10 Millionlion</t>
+  </si>
+  <si>
+    <t>&lt;250</t>
+  </si>
+  <si>
+    <t>≤ €43 Millionlion (in 1996 € 27 Millionlion)</t>
+  </si>
+  <si>
+    <t>≤ € 50 Millionlion</t>
+  </si>
+  <si>
+    <t>&gt;249</t>
+  </si>
+  <si>
+    <t>&gt; €43 Millionlion (in 1996 € 27 Millionlion)</t>
+  </si>
+  <si>
+    <t>&gt; € 50 Millionlion</t>
   </si>
   <si>
     <t>Sector Distribution Details</t>
@@ -388,7 +469,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -516,325 +597,459 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="23">
-      <c r="A23" s="3" t="s">
-        <v>28</v>
+      <c r="A23" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D31" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="2" t="s">
+    <row r="32">
+      <c r="A32" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="B32" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" s="0" t="s">
+      <c r="B33" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="0" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D34" s="0" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="0" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="0" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="B43" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" s="0" t="s">
+      <c r="B44" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="D43" s="0" t="s">
+      <c r="C44" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="D44" s="0" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D47" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="E53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C47" s="0" t="s">
+    </row>
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="B54" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="C54" s="0" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="D54" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="E54" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="2" t="s">
+    </row>
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="B55" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="C55" s="0" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="4" t="s">
+      <c r="D55" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="5" t="s">
+      <c r="E55" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="4" t="s">
+    <row r="56">
+      <c r="A56" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="B56" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>94</v>
       </c>
+      <c r="D56" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
-        <v>95</v>
+      <c r="A57" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="s">
-        <v>96</v>
+      <c r="A58" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="4" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A51" r:id="rId1"/>
+    <hyperlink ref="A63" r:id="rId1"/>
   </hyperlinks>
   <headerFooter/>
 </worksheet>

--- a/data/MSME Country Indicators - Albania Summary.xlsx
+++ b/data/MSME Country Indicators - Albania Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
   <si>
     <t>Albania</t>
   </si>
@@ -373,16 +373,64 @@
     <t>English, Figures, Statistical Databases, Enterprises Economic Indicators, "basic data for all maket producers of goods and services, by size group of enterprises 2006 - 2012"</t>
   </si>
   <si>
+    <t>Additional Information:</t>
+  </si>
+  <si>
+    <t>http://www.instat.gov.al/media/215178/sbs_2013_english_version.pdf</t>
+  </si>
+  <si>
+    <t>pages 3-4</t>
+  </si>
+  <si>
+    <t>Office for Development Cooperation - Italian Embassy. Miistry of Economy, Trade, and Energy</t>
+  </si>
+  <si>
+    <t>http://www.italcoopalbania.org/pdf/20120301105442_studio20idra_web.pdf</t>
+  </si>
+  <si>
+    <t>http://www.italcoopalbania.org/pdf/20111031095801_pbm_finale_web.pdf</t>
+  </si>
+  <si>
+    <t>European Commission</t>
+  </si>
+  <si>
+    <t>http://ec.europa.eu/enterprise/policies/sme/facts-figures-analysis/performance-review/files/countries-sheets/2012/albania_en.pdf</t>
+  </si>
+  <si>
+    <t>Ministry of Economy, Trade, and Energy</t>
+  </si>
+  <si>
+    <t>http://www.mete.gov.al/doc/20110218092915_english_draft_programi_strategjik_dt._10.01.2011.pdf</t>
+  </si>
+  <si>
+    <t>http://www.mete.gov.al/doc/20100615161814_anglisht.pdf</t>
+  </si>
+  <si>
+    <t>SME Development Agency - Ministry of Economy</t>
+  </si>
+  <si>
+    <t>http://www.qkzh.org/publications/Sme2004En.pdf</t>
+  </si>
+  <si>
+    <t>Informal Sector Information:</t>
+  </si>
+  <si>
+    <t>http://www.bankofalbania.org/web/pub/JanPeterOlters_240_1.pdf</t>
+  </si>
+  <si>
+    <t>http://www.pintoconsulting.de/Images/pdf/9_informal_economy_albania_2004.pdf</t>
+  </si>
+  <si>
+    <t>http://www.ilo.org/wcmsp5/groups/public/---europe/---ro-geneva/---sro-budapest/documents/publication/wcms_167170.pdf</t>
+  </si>
+  <si>
     <t>INSTAT</t>
   </si>
   <si>
-    <t>Albania, Institute of Statistics (INSTAT), "Enterprises Economic Indicators", 2014. Available at http://www.instat.gov.al/en/figures/statistical-databases.aspx</t>
+    <t xml:space="preserve">Albanian Law No. 8957, “Small and Medium Size Enterprises”, article IV, date 17.10.2002  in "SME-s in Albania Annual Report – 2004," Ministry of Economy, SME Development Agency, October 2004, p. 14. The law on SMEs was amended in 2008 to ad hoc harmonize the Albanian SME definition with the European Union.</t>
   </si>
   <si>
     <t>SME Performance Review EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SME Performance Review EU, "SBA Fact sheet", 2013.  Available at http://ec.europa.eu/enterprise/policies/sme/facts-figures-analysis/performance-review/index_en.htm</t>
   </si>
 </sst>
 </file>
@@ -469,7 +517,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1014,43 +1062,235 @@
     </row>
     <row r="62">
       <c r="A62" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="4" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="4" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="s">
-        <v>121</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
-        <v>122</v>
+      <c r="A69" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="4" t="s">
         <v>123</v>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A63" r:id="rId1"/>
-  </hyperlinks>
   <headerFooter/>
 </worksheet>
 </file>
--- a/data/MSME Country Indicators - Albania Summary.xlsx
+++ b/data/MSME Country Indicators - Albania Summary.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="141">
   <si>
     <t>Albania</t>
   </si>
@@ -46,25 +46,25 @@
     <t>Enterprises density (per 1000 people)</t>
   </si>
   <si>
-    <t>22.6</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>24.8</t>
+    <t>22.63</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>24.77</t>
   </si>
   <si>
     <t>Employment (% of total)</t>
   </si>
   <si>
-    <t>36.8</t>
-  </si>
-  <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t>71</t>
+    <t>36.82</t>
+  </si>
+  <si>
+    <t>34.14</t>
+  </si>
+  <si>
+    <t>70.96</t>
   </si>
   <si>
     <t>Employment (absolute #)</t>
@@ -88,10 +88,10 @@
     <t>Value added to the economy (% of total)</t>
   </si>
   <si>
-    <t>19.1</t>
-  </si>
-  <si>
-    <t>40.2</t>
+    <t>19.11</t>
+  </si>
+  <si>
+    <t>40.19</t>
   </si>
   <si>
     <t>59.3</t>
@@ -154,19 +154,22 @@
     <t>78339</t>
   </si>
   <si>
-    <t>23.8</t>
-  </si>
-  <si>
-    <t>1.1</t>
+    <t>23.76</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>24.84</t>
   </si>
   <si>
     <t>44.9</t>
   </si>
   <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>81.4</t>
+    <t>36.47</t>
+  </si>
+  <si>
+    <t>81.36</t>
   </si>
   <si>
     <t>126079</t>
@@ -178,13 +181,13 @@
     <t>228478</t>
   </si>
   <si>
-    <t>95.5</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>99.9</t>
+    <t>95.54</t>
+  </si>
+  <si>
+    <t>4.34</t>
+  </si>
+  <si>
+    <t>99.89</t>
   </si>
   <si>
     <t>Source: SME Performance Review EU, 2011</t>
@@ -753,7 +756,7 @@
         <v>48</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>13</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34">
@@ -761,13 +764,13 @@
         <v>14</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35">
@@ -775,13 +778,13 @@
         <v>18</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36">
@@ -789,18 +792,18 @@
         <v>22</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="39">
@@ -819,18 +822,18 @@
         <v>24</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43">
@@ -849,13 +852,13 @@
         <v>3</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="45">
@@ -863,13 +866,13 @@
         <v>34</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46">
@@ -877,13 +880,13 @@
         <v>37</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47">
@@ -891,18 +894,18 @@
         <v>40</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52">
@@ -913,151 +916,151 @@
         <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62">
@@ -1067,7 +1070,7 @@
     </row>
     <row r="63">
       <c r="A63" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64">
@@ -1077,7 +1080,7 @@
     </row>
     <row r="65">
       <c r="A65" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="66">
@@ -1087,7 +1090,7 @@
     </row>
     <row r="67">
       <c r="A67" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="68">
@@ -1097,7 +1100,7 @@
     </row>
     <row r="69">
       <c r="A69" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
@@ -1107,7 +1110,7 @@
     </row>
     <row r="71">
       <c r="A71" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="72">
@@ -1117,7 +1120,7 @@
     </row>
     <row r="73">
       <c r="A73" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="74">
@@ -1127,7 +1130,7 @@
     </row>
     <row r="75">
       <c r="A75" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="76">
@@ -1137,7 +1140,7 @@
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="78">
@@ -1147,7 +1150,7 @@
     </row>
     <row r="79">
       <c r="A79" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80">
@@ -1157,7 +1160,7 @@
     </row>
     <row r="81">
       <c r="A81" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
@@ -1167,7 +1170,7 @@
     </row>
     <row r="83">
       <c r="A83" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84">
@@ -1177,7 +1180,7 @@
     </row>
     <row r="85">
       <c r="A85" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="86">
@@ -1187,7 +1190,7 @@
     </row>
     <row r="87">
       <c r="A87" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="88">
@@ -1197,7 +1200,7 @@
     </row>
     <row r="89">
       <c r="A89" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="90">
@@ -1207,7 +1210,7 @@
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92">
@@ -1217,7 +1220,7 @@
     </row>
     <row r="93">
       <c r="A93" s="4" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="94">
@@ -1227,7 +1230,7 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="96">
@@ -1237,7 +1240,7 @@
     </row>
     <row r="97">
       <c r="A97" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="98">
@@ -1247,7 +1250,7 @@
     </row>
     <row r="99">
       <c r="A99" s="4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="100">
@@ -1257,7 +1260,7 @@
     </row>
     <row r="101">
       <c r="A101" s="4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="102">
@@ -1267,27 +1270,27 @@
     </row>
     <row r="103">
       <c r="A103" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
